--- a/src/test/resources/DataDriven/CrearValidarEmpleado/CrearValidarEmpleado.xlsx
+++ b/src/test/resources/DataDriven/CrearValidarEmpleado/CrearValidarEmpleado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automatizacion\Davivienda-automatizacion-master\davivienda\src\test\resources\DataDriven\CrearValidarEmpleado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169E1396-CB72-473B-A2C1-84BB7CB53F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F977C196-344C-4734-A140-48B1EEBBAC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
     <t>apellidoEmpleado</t>
   </si>
   <si>
-    <t>"Juan"</t>
+    <t>"Leonardo"</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15"/>
